--- a/BI_with_Excel_basic_1.xlsx
+++ b/BI_with_Excel_basic_1.xlsx
@@ -9,12 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="3795" windowHeight="2700"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="3795" windowHeight="2700" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="tabla de amortización cuota fij" sheetId="1" r:id="rId1"/>
+    <sheet name="cálculo nómina" sheetId="2" r:id="rId2"/>
+    <sheet name="tabla dinámica" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,8 +28,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Usuario</author>
+  </authors>
+  <commentList>
+    <comment ref="C14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Jonny Mora:
+Las horas extras tienen un valor de 500
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="102">
   <si>
     <t>Guillermo realizó un préstamos de $50000 con una tasa de 2% de interés en un plazo de 1 año. Calcular las cuotas que pagará cada mes.</t>
   </si>
@@ -72,18 +113,300 @@
   </si>
   <si>
     <t>FUNCIÓN PAGO: calcular cuota fija de una hipoteca</t>
+  </si>
+  <si>
+    <t>Cálculo básico de Nómina</t>
+  </si>
+  <si>
+    <t>Nombre del empleado</t>
+  </si>
+  <si>
+    <t>DEVENGADO</t>
+  </si>
+  <si>
+    <t>DEDUCCIONES</t>
+  </si>
+  <si>
+    <t>Neto Pagado</t>
+  </si>
+  <si>
+    <t>Recibí Conforme</t>
+  </si>
+  <si>
+    <t>Jonny Mora</t>
+  </si>
+  <si>
+    <t>Anderson Hernández</t>
+  </si>
+  <si>
+    <t>Michael Jimenez</t>
+  </si>
+  <si>
+    <t>Laura Rojas</t>
+  </si>
+  <si>
+    <t>Johansel Martínez</t>
+  </si>
+  <si>
+    <t>Ana Luisa Escibar</t>
+  </si>
+  <si>
+    <t>Diomaris Encarnación</t>
+  </si>
+  <si>
+    <t>Francisco Dipre</t>
+  </si>
+  <si>
+    <t>Esteban Sepúlveda</t>
+  </si>
+  <si>
+    <t>Joana Balbuena</t>
+  </si>
+  <si>
+    <t>Ulises Osoria</t>
+  </si>
+  <si>
+    <t>Horas Extras</t>
+  </si>
+  <si>
+    <t>Total Devengado</t>
+  </si>
+  <si>
+    <t>Aportes a salud</t>
+  </si>
+  <si>
+    <t>Aportes a pensiones</t>
+  </si>
+  <si>
+    <t>Descuentos por préstamos</t>
+  </si>
+  <si>
+    <t>Descuentos por aportes a cooperativas</t>
+  </si>
+  <si>
+    <t>Total deducciones</t>
+  </si>
+  <si>
+    <t>Recibí conforme</t>
+  </si>
+  <si>
+    <t>Aporte obligatorio a salud (4%)</t>
+  </si>
+  <si>
+    <t>Totales</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Aporte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obligatorio</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a Fondo de pensiones</t>
+    </r>
+  </si>
+  <si>
+    <t>Cálculo horas extras</t>
+  </si>
+  <si>
+    <t>Sueldo devengado (lo ganado)</t>
+  </si>
+  <si>
+    <t>Registro de socios Sodaie</t>
+  </si>
+  <si>
+    <t>COD</t>
+  </si>
+  <si>
+    <t>Nombre del socio</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Región</t>
+  </si>
+  <si>
+    <t>Año de ingreso</t>
+  </si>
+  <si>
+    <t>Antigüedad</t>
+  </si>
+  <si>
+    <t>Acumulado</t>
+  </si>
+  <si>
+    <t>SO-1</t>
+  </si>
+  <si>
+    <t>SO-2</t>
+  </si>
+  <si>
+    <t>SO-3</t>
+  </si>
+  <si>
+    <t>SO-4</t>
+  </si>
+  <si>
+    <t>SO-9</t>
+  </si>
+  <si>
+    <t>SO-10</t>
+  </si>
+  <si>
+    <t>SO-11</t>
+  </si>
+  <si>
+    <t>Carlos Mora</t>
+  </si>
+  <si>
+    <t>Juan de lo Palote</t>
+  </si>
+  <si>
+    <t>Ana Beato</t>
+  </si>
+  <si>
+    <t>Lupita de la Rosa</t>
+  </si>
+  <si>
+    <t>Mazimilliano Perez</t>
+  </si>
+  <si>
+    <t>Sutano de la paz</t>
+  </si>
+  <si>
+    <t>Perensejo Manuel</t>
+  </si>
+  <si>
+    <t>Ramon Paez</t>
+  </si>
+  <si>
+    <t>Jimmy de la Cruz</t>
+  </si>
+  <si>
+    <t>Rosa Torres</t>
+  </si>
+  <si>
+    <t>Miguel Olivo</t>
+  </si>
+  <si>
+    <t>SO-5</t>
+  </si>
+  <si>
+    <t>SO-6</t>
+  </si>
+  <si>
+    <t>SO-7</t>
+  </si>
+  <si>
+    <t>SO-8</t>
+  </si>
+  <si>
+    <t>Autor</t>
+  </si>
+  <si>
+    <t>Intérpetre</t>
+  </si>
+  <si>
+    <t>Ejecutante</t>
+  </si>
+  <si>
+    <t>Músico</t>
+  </si>
+  <si>
+    <t>Intèrprete</t>
+  </si>
+  <si>
+    <t>Intérprete</t>
+  </si>
+  <si>
+    <t>6/17/2013</t>
+  </si>
+  <si>
+    <t>6/18/2000</t>
+  </si>
+  <si>
+    <t>Cibao</t>
+  </si>
+  <si>
+    <t>Distrito Nacional</t>
+  </si>
+  <si>
+    <t>Norte</t>
+  </si>
+  <si>
+    <t>Este</t>
+  </si>
+  <si>
+    <t>6/19/1905</t>
+  </si>
+  <si>
+    <t>6/20/2015</t>
+  </si>
+  <si>
+    <t>6/21/2013</t>
+  </si>
+  <si>
+    <t>6/22/1980</t>
+  </si>
+  <si>
+    <t>6/23/1993</t>
+  </si>
+  <si>
+    <t>6/24/1985</t>
+  </si>
+  <si>
+    <t>6/25/2019</t>
+  </si>
+  <si>
+    <t>6/26/1987</t>
+  </si>
+  <si>
+    <t>6/27/1984</t>
+  </si>
+  <si>
+    <t>Etiquetas de fila</t>
+  </si>
+  <si>
+    <t>Total general</t>
+  </si>
+  <si>
+    <t>Suma de Acumulado</t>
+  </si>
+  <si>
+    <t>Etiquetas de columna</t>
+  </si>
+  <si>
+    <t>Calcular= Suma acumulada de autores y músicos en Distrito Nacional.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
     <numFmt numFmtId="164" formatCode="[$$-540A]#,##0"/>
-    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="165" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* &quot;-&quot;??\ [$€-C0A]_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,8 +428,67 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -137,8 +519,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -203,12 +603,90 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -229,11 +707,89 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="8" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -241,6 +797,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9966"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -250,6 +811,3215 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$B$13:$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEVENGADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Sueldo devengado (lo ganado)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$B$15:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>25000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$C$13:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEVENGADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Horas Extras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$C$15:$C$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$D$13:$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEVENGADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cálculo horas extras</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$D$15:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-* #,##0.00\ [$€-C0A]_-;\-* #,##0.00\ [$€-C0A]_-;_-* "-"??\ [$€-C0A]_-;_-@_-</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$E$13:$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEVENGADO</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total Devengado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$E$15:$E$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>84500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>28000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31500</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$F$13:$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEDUCCIONES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aportes a salud</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$F$15:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1360</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1720</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1040</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>920</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1040</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$G$13:$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEDUCCIONES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Aportes a pensiones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$G$15:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2150</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1850</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1300</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$H$13:$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEDUCCIONES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Descuentos por préstamos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$H$15:$H$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$I$13:$I$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEDUCCIONES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Descuentos por aportes a cooperativas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$I$15:$I$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$J$13:$J$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>DEDUCCIONES</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Total deducciones</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$J$15:$J$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>3250</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4870</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8200</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2980</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3340</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4330</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3340</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$K$13:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Neto Pagado</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Neto Pagado</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'cálculo nómina'!$A$15:$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>Jonny Mora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Anderson Hernández</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Michael Jimenez</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Laura Rojas</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Johansel Martínez</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ana Luisa Escibar</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Diomaris Encarnación</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Francisco Dipre</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Esteban Sepúlveda</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Joana Balbuena</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Ulises Osoria</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'cálculo nómina'!$K$15:$K$26</c:f>
+              <c:numCache>
+                <c:formatCode>_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* "-"??_ ;_-@_ </c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="1">
+                  <c:v>26750</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31940</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41630</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76300</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25020</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28160</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37670</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24430</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-CD42-41DF-9613-7EFA2706F336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="695333648"/>
+        <c:axId val="695329072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="695333648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695329072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695329072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695333648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[BI_with_Excel_basic_1.xlsx]tabla dinámica!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabla dinámica'!$M$9:$M$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Autor</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabla dinámica'!$L$11:$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Jimmy de la Cruz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lupita de la Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabla dinámica'!$M$11:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2342.4699999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE0A-453C-884E-7916B5266FAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'tabla dinámica'!$N$9:$N$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Músico</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'tabla dinámica'!$L$11:$L$13</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Jimmy de la Cruz</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lupita de la Rosa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'tabla dinámica'!$N$11:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="1">
+                  <c:v>12383.56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-FE0A-453C-884E-7916B5266FAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="705351792"/>
+        <c:axId val="705359696"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="705351792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705359696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705359696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705351792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>184978</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>181389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>193261</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>55217</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038224</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Usuario" refreshedDate="45308.782324768516" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="11">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C5:I16" sheet="tabla dinámica"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="COD" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Nombre del socio" numFmtId="0">
+      <sharedItems count="11">
+        <s v="Carlos Mora"/>
+        <s v="Juan de lo Palote"/>
+        <s v="Ana Beato"/>
+        <s v="Lupita de la Rosa"/>
+        <s v="Mazimilliano Perez"/>
+        <s v="Sutano de la paz"/>
+        <s v="Perensejo Manuel"/>
+        <s v="Ramon Paez"/>
+        <s v="Jimmy de la Cruz"/>
+        <s v="Rosa Torres"/>
+        <s v="Miguel Olivo"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Categoría" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Autor"/>
+        <s v="Intérpetre"/>
+        <s v="Ejecutante"/>
+        <s v="Músico"/>
+        <s v="Intèrprete"/>
+        <s v="Intérprete"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Región" numFmtId="0">
+      <sharedItems count="4">
+        <s v="Cibao"/>
+        <s v="Distrito Nacional"/>
+        <s v="Norte"/>
+        <s v="Este"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Año de ingreso" numFmtId="167">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Antigüedad" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="115"/>
+    </cacheField>
+    <cacheField name="Acumulado" numFmtId="165">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2342.4699999999998" maxValue="287575.34000000003"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="11">
+  <r>
+    <s v="SO-1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="6/17/2013"/>
+    <n v="7"/>
+    <n v="17404.11"/>
+  </r>
+  <r>
+    <s v="SO-2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="6/18/2000"/>
+    <n v="20"/>
+    <n v="49917.81"/>
+  </r>
+  <r>
+    <s v="SO-3"/>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="6/19/1905"/>
+    <n v="115"/>
+    <n v="287575.34000000003"/>
+  </r>
+  <r>
+    <s v="SO-4"/>
+    <x v="3"/>
+    <x v="3"/>
+    <x v="1"/>
+    <s v="6/20/2015"/>
+    <n v="5"/>
+    <n v="12383.56"/>
+  </r>
+  <r>
+    <s v="SO-5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="6/21/2013"/>
+    <n v="7"/>
+    <n v="17376.71"/>
+  </r>
+  <r>
+    <s v="SO-6"/>
+    <x v="5"/>
+    <x v="4"/>
+    <x v="0"/>
+    <s v="6/22/1980"/>
+    <n v="40"/>
+    <n v="99924.66"/>
+  </r>
+  <r>
+    <s v="SO-7"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <s v="6/23/1993"/>
+    <n v="27"/>
+    <n v="67397.259999999995"/>
+  </r>
+  <r>
+    <s v="SO-8"/>
+    <x v="7"/>
+    <x v="3"/>
+    <x v="2"/>
+    <s v="6/24/1985"/>
+    <n v="35"/>
+    <n v="87404.11"/>
+  </r>
+  <r>
+    <s v="SO-9"/>
+    <x v="8"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="6/25/2019"/>
+    <n v="1"/>
+    <n v="2342.4699999999998"/>
+  </r>
+  <r>
+    <s v="SO-10"/>
+    <x v="9"/>
+    <x v="5"/>
+    <x v="3"/>
+    <s v="6/26/1987"/>
+    <n v="33"/>
+    <n v="82390.41"/>
+  </r>
+  <r>
+    <s v="SO-11"/>
+    <x v="10"/>
+    <x v="2"/>
+    <x v="0"/>
+    <s v="6/27/1984"/>
+    <n v="36"/>
+    <n v="89883.56"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="L9:O13" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="12">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="5"/>
+        <item h="1" x="4"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="3"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="3" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Suma de Acumulado" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,8 +4287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -933,4 +4703,1098 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L34"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" customWidth="1"/>
+    <col min="12" max="12" width="21.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="32"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30"/>
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="30"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="35">
+        <v>25000</v>
+      </c>
+      <c r="C16" s="36">
+        <v>10</v>
+      </c>
+      <c r="D16" s="37">
+        <f>500*C16</f>
+        <v>5000</v>
+      </c>
+      <c r="E16" s="35">
+        <f>B16+D16</f>
+        <v>30000</v>
+      </c>
+      <c r="F16" s="31">
+        <f>B16*4%</f>
+        <v>1000</v>
+      </c>
+      <c r="G16" s="31">
+        <f>B16*5%</f>
+        <v>1250</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="31">
+        <f>SUM(F16:I16)</f>
+        <v>3250</v>
+      </c>
+      <c r="K16" s="31">
+        <f>E16-J16</f>
+        <v>26750</v>
+      </c>
+      <c r="L16" s="26"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="31">
+        <v>34000</v>
+      </c>
+      <c r="C17" s="36">
+        <v>4</v>
+      </c>
+      <c r="D17" s="37">
+        <f t="shared" ref="D17:D26" si="0">500*C17</f>
+        <v>2000</v>
+      </c>
+      <c r="E17" s="35">
+        <f t="shared" ref="E17:E26" si="1">B17+D17</f>
+        <v>36000</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" ref="F17:F26" si="2">B17*4%</f>
+        <v>1360</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" ref="G17:G26" si="3">B17*5%</f>
+        <v>1700</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J17" s="31">
+        <f t="shared" ref="J17:J26" si="4">SUM(F17:I17)</f>
+        <v>4060</v>
+      </c>
+      <c r="K17" s="31">
+        <f t="shared" ref="K17:K26" si="5">E17-J17</f>
+        <v>31940</v>
+      </c>
+      <c r="L17" s="26"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="31">
+        <v>50000</v>
+      </c>
+      <c r="C18" s="36">
+        <v>13</v>
+      </c>
+      <c r="D18" s="37">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="E18" s="35">
+        <f t="shared" si="1"/>
+        <v>56500</v>
+      </c>
+      <c r="F18" s="31">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="G18" s="31">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="H18" s="26">
+        <v>0</v>
+      </c>
+      <c r="I18" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J18" s="31">
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+      <c r="K18" s="31">
+        <f t="shared" si="5"/>
+        <v>51000</v>
+      </c>
+      <c r="L18" s="26"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="31">
+        <v>43000</v>
+      </c>
+      <c r="C19" s="36">
+        <v>7</v>
+      </c>
+      <c r="D19" s="37">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="E19" s="35">
+        <f t="shared" si="1"/>
+        <v>46500</v>
+      </c>
+      <c r="F19" s="31">
+        <f t="shared" si="2"/>
+        <v>1720</v>
+      </c>
+      <c r="G19" s="31">
+        <f t="shared" si="3"/>
+        <v>2150</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J19" s="31">
+        <f t="shared" si="4"/>
+        <v>4870</v>
+      </c>
+      <c r="K19" s="31">
+        <f t="shared" si="5"/>
+        <v>41630</v>
+      </c>
+      <c r="L19" s="26"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="31">
+        <v>60000</v>
+      </c>
+      <c r="C20" s="36">
+        <v>8</v>
+      </c>
+      <c r="D20" s="37">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E20" s="35">
+        <f t="shared" si="1"/>
+        <v>64000</v>
+      </c>
+      <c r="F20" s="31">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="G20" s="31">
+        <f t="shared" si="3"/>
+        <v>3000</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J20" s="31">
+        <f t="shared" si="4"/>
+        <v>6400</v>
+      </c>
+      <c r="K20" s="31">
+        <f t="shared" si="5"/>
+        <v>57600</v>
+      </c>
+      <c r="L20" s="26"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="31">
+        <v>80000</v>
+      </c>
+      <c r="C21" s="36">
+        <v>9</v>
+      </c>
+      <c r="D21" s="37">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E21" s="35">
+        <f t="shared" si="1"/>
+        <v>84500</v>
+      </c>
+      <c r="F21" s="31">
+        <f t="shared" si="2"/>
+        <v>3200</v>
+      </c>
+      <c r="G21" s="31">
+        <f t="shared" si="3"/>
+        <v>4000</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J21" s="31">
+        <f t="shared" si="4"/>
+        <v>8200</v>
+      </c>
+      <c r="K21" s="31">
+        <f t="shared" si="5"/>
+        <v>76300</v>
+      </c>
+      <c r="L21" s="26"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="31">
+        <v>22000</v>
+      </c>
+      <c r="C22" s="36">
+        <v>12</v>
+      </c>
+      <c r="D22" s="37">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="E22" s="35">
+        <f t="shared" si="1"/>
+        <v>28000</v>
+      </c>
+      <c r="F22" s="31">
+        <f t="shared" si="2"/>
+        <v>880</v>
+      </c>
+      <c r="G22" s="31">
+        <f t="shared" si="3"/>
+        <v>1100</v>
+      </c>
+      <c r="H22" s="26">
+        <v>0</v>
+      </c>
+      <c r="I22" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J22" s="31">
+        <f t="shared" si="4"/>
+        <v>2980</v>
+      </c>
+      <c r="K22" s="31">
+        <f t="shared" si="5"/>
+        <v>25020</v>
+      </c>
+      <c r="L22" s="26"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="31">
+        <v>26000</v>
+      </c>
+      <c r="C23" s="36">
+        <v>11</v>
+      </c>
+      <c r="D23" s="37">
+        <f t="shared" si="0"/>
+        <v>5500</v>
+      </c>
+      <c r="E23" s="35">
+        <f t="shared" si="1"/>
+        <v>31500</v>
+      </c>
+      <c r="F23" s="31">
+        <f t="shared" si="2"/>
+        <v>1040</v>
+      </c>
+      <c r="G23" s="31">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="H23" s="26">
+        <v>0</v>
+      </c>
+      <c r="I23" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J23" s="31">
+        <f t="shared" si="4"/>
+        <v>3340</v>
+      </c>
+      <c r="K23" s="31">
+        <f t="shared" si="5"/>
+        <v>28160</v>
+      </c>
+      <c r="L23" s="26"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="31">
+        <v>37000</v>
+      </c>
+      <c r="C24" s="36">
+        <v>10</v>
+      </c>
+      <c r="D24" s="37">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="E24" s="35">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+      <c r="F24" s="31">
+        <f t="shared" si="2"/>
+        <v>1480</v>
+      </c>
+      <c r="G24" s="31">
+        <f t="shared" si="3"/>
+        <v>1850</v>
+      </c>
+      <c r="H24" s="26">
+        <v>0</v>
+      </c>
+      <c r="I24" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J24" s="31">
+        <f t="shared" si="4"/>
+        <v>4330</v>
+      </c>
+      <c r="K24" s="31">
+        <f t="shared" si="5"/>
+        <v>37670</v>
+      </c>
+      <c r="L24" s="26"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="31">
+        <v>23000</v>
+      </c>
+      <c r="C25" s="36">
+        <v>9</v>
+      </c>
+      <c r="D25" s="37">
+        <f t="shared" si="0"/>
+        <v>4500</v>
+      </c>
+      <c r="E25" s="35">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+      <c r="F25" s="31">
+        <f t="shared" si="2"/>
+        <v>920</v>
+      </c>
+      <c r="G25" s="31">
+        <f t="shared" si="3"/>
+        <v>1150</v>
+      </c>
+      <c r="H25" s="26">
+        <v>0</v>
+      </c>
+      <c r="I25" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J25" s="31">
+        <f t="shared" si="4"/>
+        <v>3070</v>
+      </c>
+      <c r="K25" s="31">
+        <f t="shared" si="5"/>
+        <v>24430</v>
+      </c>
+      <c r="L25" s="26"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="31">
+        <v>26000</v>
+      </c>
+      <c r="C26" s="36">
+        <v>8</v>
+      </c>
+      <c r="D26" s="37">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="E26" s="35">
+        <f t="shared" si="1"/>
+        <v>30000</v>
+      </c>
+      <c r="F26" s="31">
+        <f t="shared" si="2"/>
+        <v>1040</v>
+      </c>
+      <c r="G26" s="31">
+        <f t="shared" si="3"/>
+        <v>1300</v>
+      </c>
+      <c r="H26" s="26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="31">
+        <v>1000</v>
+      </c>
+      <c r="J26" s="31">
+        <f t="shared" si="4"/>
+        <v>3340</v>
+      </c>
+      <c r="K26" s="31">
+        <f t="shared" si="5"/>
+        <v>26660</v>
+      </c>
+      <c r="L26" s="26"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="26"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="26"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="26"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="26"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="26"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="26"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="26"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+    </row>
+  </sheetData>
+  <sheetProtection insertRows="0" selectLockedCells="1" selectUnlockedCells="1"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:O16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="18.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="16" width="12.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.140625" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+    <col min="19" max="19" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C2" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="4" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C4" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="38"/>
+    </row>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="41" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G5" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="H6" s="26">
+        <v>7</v>
+      </c>
+      <c r="I6" s="31">
+        <v>17404.11</v>
+      </c>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="26">
+        <v>20</v>
+      </c>
+      <c r="I7" s="31">
+        <v>49917.81</v>
+      </c>
+      <c r="L7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="26">
+        <v>115</v>
+      </c>
+      <c r="I8" s="31">
+        <v>287575.34000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5</v>
+      </c>
+      <c r="I9" s="31">
+        <v>12383.56</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="26">
+        <v>7</v>
+      </c>
+      <c r="I10" s="31">
+        <v>17376.71</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="26">
+        <v>40</v>
+      </c>
+      <c r="I11" s="31">
+        <v>99924.66</v>
+      </c>
+      <c r="L11" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11" s="46">
+        <v>2342.4699999999998</v>
+      </c>
+      <c r="N11" s="46"/>
+      <c r="O11" s="46">
+        <v>2342.4699999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="43" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="26">
+        <v>27</v>
+      </c>
+      <c r="I12" s="31">
+        <v>67397.259999999995</v>
+      </c>
+      <c r="L12" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="46"/>
+      <c r="N12" s="46">
+        <v>12383.56</v>
+      </c>
+      <c r="O12" s="46">
+        <v>12383.56</v>
+      </c>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="H13" s="26">
+        <v>35</v>
+      </c>
+      <c r="I13" s="31">
+        <v>87404.11</v>
+      </c>
+      <c r="L13" s="45" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="46">
+        <v>2342.4699999999998</v>
+      </c>
+      <c r="N13" s="46">
+        <v>12383.56</v>
+      </c>
+      <c r="O13" s="46">
+        <v>14726.029999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1</v>
+      </c>
+      <c r="I14" s="31">
+        <v>2342.4699999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C15" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="26">
+        <v>33</v>
+      </c>
+      <c r="I15" s="31">
+        <v>82390.41</v>
+      </c>
+    </row>
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C16" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" s="26">
+        <v>36</v>
+      </c>
+      <c r="I16" s="31">
+        <v>89883.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:I4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>